--- a/tests/polybench-c-4.0/results/scev-checks-vs-old-polly.xlsx
+++ b/tests/polybench-c-4.0/results/scev-checks-vs-old-polly.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="scev-vs-polly" sheetId="2" r:id="rId1"/>
+    <sheet name="scev+licm-vs-polly" sheetId="3" r:id="rId2"/>
+    <sheet name="scev+licm-vs-polly-fusion-max" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t>opt</t>
   </si>
@@ -133,13 +135,31 @@
   </si>
   <si>
     <t>SCEV checks vs. clean Polly</t>
+  </si>
+  <si>
+    <t>SCEV checks + LICM vs. clean Polly</t>
+  </si>
+  <si>
+    <t>OPT: same as base plus SCEV alias checks with LICM</t>
+  </si>
+  <si>
+    <t>SCEV checks + LICM vs. clean Polly (fusion=max)</t>
+  </si>
+  <si>
+    <t>GOAL: show how SCEV checks combined with LICM improve Polly</t>
+  </si>
+  <si>
+    <t>BASE: llvm -O3 + old version of Polly + fusion=max</t>
+  </si>
+  <si>
+    <t>GOAL: show how SCEV checks combined with LICM improve Polly when using fusion=max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +198,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -196,15 +222,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -214,19 +234,35 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -238,17 +274,26 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -270,36 +315,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -310,6 +373,12 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -320,6 +389,12 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,7 +441,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$8:$A$37</c:f>
+              <c:f>'scev-vs-polly'!$A$8:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -464,7 +539,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$37</c:f>
+              <c:f>'scev-vs-polly'!$D$8:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -571,11 +646,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2104165848"/>
-        <c:axId val="2104168856"/>
+        <c:axId val="2123691848"/>
+        <c:axId val="2123688920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104165848"/>
+        <c:axId val="2123691848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104168856"/>
+        <c:crossAx val="2123688920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -592,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104168856"/>
+        <c:axId val="2123688920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +688,605 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104165848"/>
+        <c:crossAx val="2123691848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'scev+licm-vs-polly'!$A$8:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>bicg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gesummv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jacobi-1d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gramschmidt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>atax</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gemm</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>symm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gemver</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>doitgen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3mm</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>mvt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>durbin</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ludcmp</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fdtd-2d</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>adi</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>seidel-2d</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>heat-3d</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>nussinov</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>deriche</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>covariance</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>jacobi-2d</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>trisolv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scev+licm-vs-polly'!$D$8:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.374998621450455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.493029215786516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.615361566117428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625355038822388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.814468375329738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.880188436491011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.894783264000221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.895674368855297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.917539856200676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.918121986695718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.946274407843843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.958654529124391</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.962034111488616</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.971935286708003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.972409256251451</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.979054502543713</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.987915324402035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.991270742398097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.997093796275721</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.998827654854392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.998879570382732</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.000385206720745</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.000435016424108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.000435216417178</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.000752210477181</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.089683067351401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.097623750551983</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.743414968348724</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.844921628296314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2123605832"/>
+        <c:axId val="2123602840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2123605832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123602840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123602840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123605832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'scev+licm-vs-polly-fusion-max'!$A$8:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>bicg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gesummv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jacobi-1d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gramschmidt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>atax</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>symm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gemm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gemver</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mvt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3mm</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>doitgen</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ludcmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>adi</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>seidel-2d</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>heat-3d</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>nussinov</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>fdtd-2d</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>durbin</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>deriche</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>covariance</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>jacobi-2d</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>trisolv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scev+licm-vs-polly-fusion-max'!$D$8:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.374921422663358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.494476200241204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.710934805105209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.835394835781392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.881456560458388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.886227252182545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.891059413869891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.912717859842931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.914443548671876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.931284763375684</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.937783266028184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.967257318950371</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.975659122637874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.977337836778889</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.993982448192694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.995069071739986</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.995390645307017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.995927677533346</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.997978248018686</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.998202094522043</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99834881548572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.002255785942145</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.003427537466561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.004809721432797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.020220733149405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.087137360067306</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.097276157890785</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.749524117274007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.859221346825166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2123561336"/>
+        <c:axId val="2123558344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2123561336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123558344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123558344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123561336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,7 +1322,9 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -678,7 +1353,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5923280" y="873760"/>
+          <a:off x="5935980" y="1427480"/>
           <a:ext cx="1544320" cy="430887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -756,6 +1431,324 @@
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="381319" y="1208173"/>
           <a:ext cx="8098894" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3387</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1544320" cy="430887"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935980" y="1427480"/>
+          <a:ext cx="1544320" cy="430887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Average:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 0.96</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Geometric mean: 0.93</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04498</cdr:x>
+      <cdr:y>0.38886</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98453</cdr:x>
+      <cdr:y>0.38886</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="387695" y="1048289"/>
+          <a:ext cx="8098839" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3387</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1544320" cy="430887"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935980" y="1427480"/>
+          <a:ext cx="1544320" cy="430887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Average:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 0.98</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Geometric mean: 0.95</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04424</cdr:x>
+      <cdr:y>0.39122</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98379</cdr:x>
+      <cdr:y>0.39122</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="381345" y="1054639"/>
+          <a:ext cx="8098839" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -1112,116 +2105,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" thickBot="1"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
     <row r="7" spans="1:16" ht="16" thickBot="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1229,10 +2221,10 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="10">
         <v>7.9154183329999999</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <v>2.6711416670000001</v>
       </c>
       <c r="D8" s="5">
@@ -1242,450 +2234,1612 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>3.3054133330000002</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
         <v>2.477566167</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>0.74954806476543001</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>0.83750533299999996</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="11">
         <v>0.68389916699999997</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>0.81659082044316966</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>1.0906883329999999</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
         <v>0.897848333</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>0.82319422133215403</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="10">
         <v>5.5600986670000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="11">
         <v>5.1455419999999998</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0.92544077149917237</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <v>4.6243933330000004</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="11">
         <v>4.2814111669999999</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>0.92583196512449417</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="10">
         <v>3.8639476670000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="11">
         <v>3.702578667</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>0.95823727081550036</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="10">
         <v>4.5316565000000004</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="11">
         <v>4.3435604999999997</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>0.95849288223853668</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>4.0289801670000003</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="11">
         <v>3.8727904999999998</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>0.96123344853387549</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>5.2506244999999998</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="11">
         <v>5.0984586670000001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>0.97101947911148478</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="10">
         <v>3.1734473329999999</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="11">
         <v>3.1331674999999999</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>0.98730723129350895</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="10">
         <v>4.0148738330000002</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="11">
         <v>3.9765558329999999</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>0.99045598900641707</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="10">
         <v>23.962341330000001</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="11">
         <v>23.882095</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>0.99665114819562584</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="10">
         <v>2.9581270000000002</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="11">
         <v>2.9487755</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>0.99683870908855499</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="10">
         <v>1.7634468329999999</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="11">
         <v>1.7602834999999999</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>0.9982061648013405</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="10">
         <v>32.835721329999998</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="11">
         <v>32.834159999999997</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>0.99995245026036406</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="10">
         <v>1.6958330000000001E-3</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="11">
         <v>1.6978329999999999E-3</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>1.0011793614111766</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="10">
         <v>27.809083999999999</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="11">
         <v>27.84690767</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>1.0013601192329817</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="10">
         <v>4.6173843330000004</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="11">
         <v>4.6252003330000004</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>1.001692733252491</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="10">
         <v>4.442667E-3</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="11">
         <v>4.4813329999999997E-3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>1.0087033306795219</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="10">
         <v>1.511E-2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="11">
         <v>1.5437667E-2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>1.0216854401058901</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="10">
         <v>2.5373E-2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="11">
         <v>2.6704167000000001E-2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>1.0524639183383913</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="10">
         <v>1.211482167</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="11">
         <v>1.3213531670000001</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
         <v>1.0906913886087768</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="10">
         <v>0.24245583300000001</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="11">
         <v>0.26459966699999998</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>1.0913314137507262</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="10">
         <v>6.4983330000000002E-3</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="11">
         <v>7.3990000000000002E-3</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>1.1385996993382765</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="10">
         <v>1.7264999999999999E-2</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="11">
         <v>2.10715E-2</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>1.2204749493194325</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="10">
         <v>3.1208140000000002</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="11">
         <v>5.4104349999999997</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <f t="shared" si="0"/>
         <v>1.7336614742179441</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="10">
         <v>2.892833E-3</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="11">
         <v>5.3791669999999998E-3</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <f t="shared" si="0"/>
         <v>1.8594806544311406</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="10">
         <v>0.89255600000000002</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="11">
         <v>1.9146413330000001</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="5">
         <f t="shared" si="0"/>
         <v>2.1451217996405827</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" thickBot="1">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="10">
         <v>8.4211670000000002E-3</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="11">
         <v>1.9246666999999999E-2</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="5">
         <f t="shared" si="0"/>
         <v>2.2855106661582649</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D31">
-    <sortCondition ref="D2:D31"/>
-  </sortState>
   <mergeCells count="4">
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1.5112499999999999E-2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5.66716666667E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:D36" si="0">C8/B8</f>
+        <v>0.37499862145045493</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10">
+        <v>6.5033333333299999E-3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3.2063333333299999E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49302921578651615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1.6686666666700001E-3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.0268333333300001E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.61536156611742843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9.4426293333300002</v>
+      </c>
+      <c r="C11" s="11">
+        <v>5.9049958333300001</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62535503882238785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.8048829999999998</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2.2844885000000001</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.81446837532973759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>8.4201666666700002E-3</v>
+      </c>
+      <c r="C13" s="11">
+        <v>7.4113333333299999E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.88018843649101153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1.3446466666700001</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.2031673333299999</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89478326400022101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1.0879876666699999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.97448266666700001</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8956743688552975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.87380800000000003</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.80175366666699999</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91753985620067557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2.8985701666699999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2.661241</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91812198669571843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.5000499999999998E-2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.3657333333300001E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9462744078438432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.82947416666700002</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.79517916666699995</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.95865452912439153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10">
+        <v>4.5513795000000004</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4.3785823333299998</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.96203411148861562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <v>7.5893940000000004</v>
+      </c>
+      <c r="C21" s="11">
+        <v>7.3763998333299998</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.97193528670800322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1.7228E-2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1.67526666667E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.97240925625145114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10">
+        <v>4.5196666666699999E-3</v>
+      </c>
+      <c r="C23" s="11">
+        <v>4.4250000000000001E-3</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9790545025437134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10">
+        <v>5.1527241666699997</v>
+      </c>
+      <c r="C24" s="11">
+        <v>5.09045516667</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.98791532440203533</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10">
+        <v>4.4382926666699998</v>
+      </c>
+      <c r="C25" s="11">
+        <v>4.3995496666699996</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99127074239809687</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10">
+        <v>3.1400643333299998</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3.1309386666700001</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99709379627572092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1.7607158333299999</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1.7586516666700001</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99882765485439184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10">
+        <v>23.834904833300001</v>
+      </c>
+      <c r="C28" s="11">
+        <v>23.808199500000001</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99887957038273167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10">
+        <v>32.830856833299997</v>
+      </c>
+      <c r="C29" s="11">
+        <v>32.843503499999997</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0003852067207448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10">
+        <v>4.6174501666700003</v>
+      </c>
+      <c r="C30" s="11">
+        <v>4.6194588333300004</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0004350164241076</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10">
+        <v>3.6977771666699999</v>
+      </c>
+      <c r="C31" s="11">
+        <v>3.6993865000000001</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0004352164171779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="10">
+        <v>3.974065</v>
+      </c>
+      <c r="C32" s="11">
+        <v>3.9770543333299999</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0007522104771813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.23989849999999999</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.26141333333299999</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0896830673514006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <v>3.5196711666699998</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3.8632746666700002</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0976237505519835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="10">
+        <v>3.1143295000000002</v>
+      </c>
+      <c r="C35" s="11">
+        <v>5.4295686666699998</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7434149683487246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="10">
+        <v>2.9028333333299999E-3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>5.3555E-3</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8449216282963139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+    </row>
+  </sheetData>
+  <sortState ref="A8:D36">
+    <sortCondition ref="D8:D36"/>
+  </sortState>
+  <mergeCells count="4">
     <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1.5112499999999999E-2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5.666E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:D36" si="0">C8/B8</f>
+        <v>0.37492142266335815</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10">
+        <v>6.5021666666699998E-3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3.2151666666699998E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49447620024120448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1.4495000000000001E-3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.0304999999999999E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.71093480510520868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8.0274111666699994</v>
+      </c>
+      <c r="C11" s="11">
+        <v>6.7060578333300001</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8353948357813924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
+        <v>8.42166666667E-3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>7.4233333333299997E-3</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.88145656045838849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.8911199999999999</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2.5621893333300001</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.88622725218254528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1.0977375</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.97814933333300003</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89105941386989151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.87552466666700002</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.79910700000000001</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91271785984293119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3.8632114999999998</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3.5326888333299999</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91444354867187572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>8.5356833333300006</v>
+      </c>
+      <c r="C17" s="11">
+        <v>7.9491518333300002</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.93128476337568411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.4969166666700002E-2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.3415666666699999E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.93778326602818429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1.7306666666699999E-2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1.6740000000000001E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.96725731895037137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10">
+        <v>4.7107381666699997</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4.5960746666699999</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.97565912263787424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.82948833333299998</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.810690333333</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.97733783677888875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>4.4351370000000001</v>
+      </c>
+      <c r="C22" s="11">
+        <v>4.40844833333</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99398244819269388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="10">
+        <v>23.892526333300001</v>
+      </c>
+      <c r="C23" s="11">
+        <v>23.774713999999999</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99506907173998582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1.26829033333</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1.2624443333299999</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99539064530701671</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5.1320428333299999</v>
+      </c>
+      <c r="C25" s="11">
+        <v>5.1111434999999998</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9959276775333461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10">
+        <v>32.901661833299997</v>
+      </c>
+      <c r="C26" s="11">
+        <v>32.835142833299997</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99797824801868595</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10">
+        <v>4.6248259999999997</v>
+      </c>
+      <c r="C27" s="11">
+        <v>4.616511</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99820209452204267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1.7667115</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.7637943333299999</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99834881548572019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2.8058956666700001</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2.8122251666700002</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.002255785942145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3.9721423333299999</v>
+      </c>
+      <c r="C30" s="11">
+        <v>3.985757</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0034275374665607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10">
+        <v>3.1271388333300001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>3.1421795000000001</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0048097214327973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="10">
+        <v>4.2283333333299998E-3</v>
+      </c>
+      <c r="C32" s="11">
+        <v>4.3138333333300003E-3</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0202207331494051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.242509833333</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.26364149999999997</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>1.087137360067306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <v>3.5250758333299999</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3.86798166667</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0972761578907853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="10">
+        <v>3.1023925000000001</v>
+      </c>
+      <c r="C35" s="11">
+        <v>5.4277104999999999</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>1.749524117274007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="10">
+        <v>2.8981666666699998E-3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>5.3883333333300002E-3</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8592213468251664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A8:D36">
+    <sortCondition ref="D8:D36"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
